--- a/output/tables/table1_and_2_data.xlsx
+++ b/output/tables/table1_and_2_data.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
-    <t>ewgarp</t>
+    <t>eWGARP</t>
   </si>
   <si>
     <t>Pass</t>
@@ -28,19 +28,22 @@
     <t>Violations_frac</t>
   </si>
   <si>
-    <t>ewarp</t>
+    <t>eWARP</t>
   </si>
   <si>
-    <t>egarp</t>
+    <t>eGARP</t>
   </si>
   <si>
-    <t>esarp</t>
+    <t>eSARP</t>
   </si>
   <si>
-    <t>eharp</t>
+    <t>eHARP</t>
   </si>
   <si>
-    <t>ecm</t>
+    <t>eCM</t>
+  </si>
+  <si>
+    <t>eSGARP</t>
   </si>
   <si>
     <t>AEI</t>
@@ -87,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:U144"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -145,6 +148,15 @@
       <c r="R1" t="s">
         <v>8</v>
       </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -201,6 +213,15 @@
       <c r="R2" t="s">
         <v>3</v>
       </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -257,6 +278,15 @@
       <c r="R3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -313,6 +343,15 @@
       <c r="R4">
         <v>100</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -346,10 +385,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>5.3600000000000003</v>
+        <v>7.1399999999999997</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -368,6 +407,15 @@
       </c>
       <c r="R5">
         <v>100</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>31</v>
+      </c>
+      <c r="U5">
+        <v>48.439999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -425,6 +473,15 @@
       <c r="R6">
         <v>100</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>39.060000000000002</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -481,6 +538,15 @@
       <c r="R7">
         <v>100</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>39</v>
+      </c>
+      <c r="U7">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -537,6 +603,15 @@
       <c r="R8">
         <v>100</v>
       </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -593,6 +668,15 @@
       <c r="R9">
         <v>75</v>
       </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -649,6 +733,15 @@
       <c r="R10">
         <v>100</v>
       </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>39</v>
+      </c>
+      <c r="U10">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -705,6 +798,15 @@
       <c r="R11">
         <v>100</v>
       </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -761,6 +863,15 @@
       <c r="R12">
         <v>75</v>
       </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -817,6 +928,15 @@
       <c r="R13">
         <v>100</v>
       </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -873,6 +993,15 @@
       <c r="R14">
         <v>100</v>
       </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -929,6 +1058,15 @@
       <c r="R15">
         <v>100</v>
       </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -985,6 +1123,15 @@
       <c r="R16">
         <v>100</v>
       </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>39</v>
+      </c>
+      <c r="U16">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1041,6 +1188,15 @@
       <c r="R17">
         <v>100</v>
       </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1097,6 +1253,15 @@
       <c r="R18">
         <v>100</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1153,6 +1318,15 @@
       <c r="R19">
         <v>100</v>
       </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1209,6 +1383,15 @@
       <c r="R20">
         <v>100</v>
       </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1265,6 +1448,15 @@
       <c r="R21">
         <v>100</v>
       </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>39</v>
+      </c>
+      <c r="U21">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1321,6 +1513,15 @@
       <c r="R22">
         <v>100</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>7.8099999999999996</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1377,6 +1578,15 @@
       <c r="R23">
         <v>100</v>
       </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>39</v>
+      </c>
+      <c r="U23">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1433,6 +1643,15 @@
       <c r="R24">
         <v>100</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>37</v>
+      </c>
+      <c r="U24">
+        <v>57.810000000000002</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1489,6 +1708,15 @@
       <c r="R25">
         <v>100</v>
       </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1545,6 +1773,15 @@
       <c r="R26">
         <v>100</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>25</v>
+      </c>
+      <c r="U26">
+        <v>39.060000000000002</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1601,6 +1838,15 @@
       <c r="R27">
         <v>100</v>
       </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1657,6 +1903,15 @@
       <c r="R28">
         <v>87.5</v>
       </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1713,6 +1968,15 @@
       <c r="R29">
         <v>100</v>
       </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1769,6 +2033,15 @@
       <c r="R30">
         <v>100</v>
       </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1825,6 +2098,15 @@
       <c r="R31">
         <v>100</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>25</v>
+      </c>
+      <c r="U31">
+        <v>39.060000000000002</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1881,6 +2163,15 @@
       <c r="R32">
         <v>100</v>
       </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>14</v>
+      </c>
+      <c r="U32">
+        <v>21.879999999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1937,6 +2228,15 @@
       <c r="R33">
         <v>100</v>
       </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1993,6 +2293,15 @@
       <c r="R34">
         <v>100</v>
       </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>39</v>
+      </c>
+      <c r="U34">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2049,6 +2358,15 @@
       <c r="R35">
         <v>100</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2105,6 +2423,15 @@
       <c r="R36">
         <v>100</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>39</v>
+      </c>
+      <c r="U36">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2161,6 +2488,15 @@
       <c r="R37">
         <v>100</v>
       </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>39</v>
+      </c>
+      <c r="U37">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2217,6 +2553,15 @@
       <c r="R38">
         <v>100</v>
       </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2273,6 +2618,15 @@
       <c r="R39">
         <v>100</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>9.3800000000000008</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2297,19 +2651,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I40">
-        <v>12.5</v>
+        <v>14.289999999999999</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L40">
-        <v>12.5</v>
+        <v>16.07</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2328,6 +2682,15 @@
       </c>
       <c r="R40">
         <v>100</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40">
+        <v>15.630000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -2385,6 +2748,15 @@
       <c r="R41">
         <v>100</v>
       </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2409,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I42">
-        <v>12.5</v>
+        <v>14.289999999999999</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L42">
-        <v>14.289999999999999</v>
+        <v>19.640000000000001</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2440,6 +2812,15 @@
       </c>
       <c r="R42">
         <v>100</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>29</v>
+      </c>
+      <c r="U42">
+        <v>45.310000000000002</v>
       </c>
     </row>
     <row r="43">
@@ -2474,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2496,6 +2877,15 @@
       </c>
       <c r="R43">
         <v>100</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>6.25</v>
       </c>
     </row>
     <row r="44">
@@ -2553,6 +2943,15 @@
       <c r="R44">
         <v>100</v>
       </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>39</v>
+      </c>
+      <c r="U44">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2609,6 +3008,15 @@
       <c r="R45">
         <v>100</v>
       </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>39</v>
+      </c>
+      <c r="U45">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2665,6 +3073,15 @@
       <c r="R46">
         <v>100</v>
       </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2721,6 +3138,15 @@
       <c r="R47">
         <v>62.5</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>32</v>
+      </c>
+      <c r="U47">
+        <v>50</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2777,6 +3203,15 @@
       <c r="R48">
         <v>100</v>
       </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2810,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -2832,6 +3267,15 @@
       </c>
       <c r="R49">
         <v>100</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>36</v>
+      </c>
+      <c r="U49">
+        <v>56.25</v>
       </c>
     </row>
     <row r="50">
@@ -2889,6 +3333,15 @@
       <c r="R50">
         <v>100</v>
       </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2945,6 +3398,15 @@
       <c r="R51">
         <v>100</v>
       </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>41</v>
+      </c>
+      <c r="U51">
+        <v>64.060000000000002</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +3463,15 @@
       <c r="R52">
         <v>100</v>
       </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3057,6 +3528,15 @@
       <c r="R53">
         <v>100</v>
       </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>39</v>
+      </c>
+      <c r="U53">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3113,6 +3593,15 @@
       <c r="R54">
         <v>62.5</v>
       </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>15</v>
+      </c>
+      <c r="U54">
+        <v>23.440000000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3169,6 +3658,15 @@
       <c r="R55">
         <v>100</v>
       </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>35</v>
+      </c>
+      <c r="U55">
+        <v>54.689999999999998</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3225,6 +3723,15 @@
       <c r="R56">
         <v>100</v>
       </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3281,6 +3788,15 @@
       <c r="R57">
         <v>100</v>
       </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>8</v>
+      </c>
+      <c r="U57">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3337,6 +3853,15 @@
       <c r="R58">
         <v>100</v>
       </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3393,6 +3918,15 @@
       <c r="R59">
         <v>100</v>
       </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>39</v>
+      </c>
+      <c r="U59">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3449,6 +3983,15 @@
       <c r="R60">
         <v>100</v>
       </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>39</v>
+      </c>
+      <c r="U60">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3505,6 +4048,15 @@
       <c r="R61">
         <v>87.5</v>
       </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3561,6 +4113,15 @@
       <c r="R62">
         <v>100</v>
       </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>39</v>
+      </c>
+      <c r="U62">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3585,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>5.3600000000000003</v>
+        <v>7.1399999999999997</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>7.1399999999999997</v>
+        <v>8.9299999999999997</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -3616,6 +4177,15 @@
       </c>
       <c r="R63">
         <v>100</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>34</v>
+      </c>
+      <c r="U63">
+        <v>53.130000000000003</v>
       </c>
     </row>
     <row r="64">
@@ -3673,6 +4243,15 @@
       <c r="R64">
         <v>75</v>
       </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3729,6 +4308,15 @@
       <c r="R65">
         <v>100</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>39</v>
+      </c>
+      <c r="U65">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3785,6 +4373,15 @@
       <c r="R66">
         <v>100</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+      <c r="U66">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3841,6 +4438,15 @@
       <c r="R67">
         <v>100</v>
       </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>39</v>
+      </c>
+      <c r="U67">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3897,6 +4503,15 @@
       <c r="R68">
         <v>62.5</v>
       </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>18</v>
+      </c>
+      <c r="U68">
+        <v>28.129999999999999</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3953,6 +4568,15 @@
       <c r="R69">
         <v>100</v>
       </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -4009,6 +4633,15 @@
       <c r="R70">
         <v>100</v>
       </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>39</v>
+      </c>
+      <c r="U70">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -4065,6 +4698,15 @@
       <c r="R71">
         <v>100</v>
       </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>39</v>
+      </c>
+      <c r="U71">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4121,6 +4763,15 @@
       <c r="R72">
         <v>100</v>
       </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>39</v>
+      </c>
+      <c r="U72">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4177,6 +4828,15 @@
       <c r="R73">
         <v>37.5</v>
       </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4210,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4232,6 +4892,15 @@
       </c>
       <c r="R74">
         <v>100</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>4</v>
+      </c>
+      <c r="U74">
+        <v>6.25</v>
       </c>
     </row>
     <row r="75">
@@ -4289,6 +4958,15 @@
       <c r="R75">
         <v>100</v>
       </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4345,6 +5023,15 @@
       <c r="R76">
         <v>100</v>
       </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>9</v>
+      </c>
+      <c r="U76">
+        <v>14.06</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4401,6 +5088,15 @@
       <c r="R77">
         <v>100</v>
       </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>14</v>
+      </c>
+      <c r="U77">
+        <v>21.879999999999999</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4457,6 +5153,15 @@
       <c r="R78">
         <v>100</v>
       </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>41</v>
+      </c>
+      <c r="U78">
+        <v>64.060000000000002</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4513,6 +5218,15 @@
       <c r="R79">
         <v>100</v>
       </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4569,6 +5283,15 @@
       <c r="R80">
         <v>100</v>
       </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>39</v>
+      </c>
+      <c r="U80">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4625,6 +5348,15 @@
       <c r="R81">
         <v>100</v>
       </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6</v>
+      </c>
+      <c r="U81">
+        <v>9.3800000000000008</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4681,6 +5413,15 @@
       <c r="R82">
         <v>100</v>
       </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4737,6 +5478,15 @@
       <c r="R83">
         <v>87.5</v>
       </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>21</v>
+      </c>
+      <c r="U83">
+        <v>32.810000000000002</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4793,6 +5543,15 @@
       <c r="R84">
         <v>100</v>
       </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4849,6 +5608,15 @@
       <c r="R85">
         <v>62.5</v>
       </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>28</v>
+      </c>
+      <c r="U85">
+        <v>43.75</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4905,6 +5673,15 @@
       <c r="R86">
         <v>100</v>
       </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4961,6 +5738,15 @@
       <c r="R87">
         <v>100</v>
       </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -5017,6 +5803,15 @@
       <c r="R88">
         <v>100</v>
       </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -5050,10 +5845,10 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5072,6 +5867,15 @@
       </c>
       <c r="R89">
         <v>100</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>5</v>
+      </c>
+      <c r="U89">
+        <v>7.8099999999999996</v>
       </c>
     </row>
     <row r="90">
@@ -5129,6 +5933,15 @@
       <c r="R90">
         <v>100</v>
       </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -5185,6 +5998,15 @@
       <c r="R91">
         <v>100</v>
       </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>39</v>
+      </c>
+      <c r="U91">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5209,19 +6031,19 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5240,6 +6062,15 @@
       </c>
       <c r="R92">
         <v>100</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>9</v>
+      </c>
+      <c r="U92">
+        <v>14.06</v>
       </c>
     </row>
     <row r="93">
@@ -5297,6 +6128,15 @@
       <c r="R93">
         <v>100</v>
       </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>39</v>
+      </c>
+      <c r="U93">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5353,6 +6193,15 @@
       <c r="R94">
         <v>100</v>
       </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>37</v>
+      </c>
+      <c r="U94">
+        <v>57.810000000000002</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5409,6 +6258,15 @@
       <c r="R95">
         <v>100</v>
       </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5465,6 +6323,15 @@
       <c r="R96">
         <v>100</v>
       </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>27</v>
+      </c>
+      <c r="U96">
+        <v>42.189999999999998</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5521,6 +6388,15 @@
       <c r="R97">
         <v>100</v>
       </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5577,6 +6453,15 @@
       <c r="R98">
         <v>100</v>
       </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5633,6 +6518,15 @@
       <c r="R99">
         <v>100</v>
       </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>28</v>
+      </c>
+      <c r="U99">
+        <v>43.75</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5689,6 +6583,15 @@
       <c r="R100">
         <v>100</v>
       </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>39</v>
+      </c>
+      <c r="U100">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5745,6 +6648,15 @@
       <c r="R101">
         <v>100</v>
       </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5801,6 +6713,15 @@
       <c r="R102">
         <v>100</v>
       </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>32</v>
+      </c>
+      <c r="U102">
+        <v>50</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5857,6 +6778,15 @@
       <c r="R103">
         <v>100</v>
       </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>39</v>
+      </c>
+      <c r="U103">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5913,6 +6843,15 @@
       <c r="R104">
         <v>100</v>
       </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5969,6 +6908,15 @@
       <c r="R105">
         <v>100</v>
       </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>39</v>
+      </c>
+      <c r="U105">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -6002,28 +6950,37 @@
         <v>0</v>
       </c>
       <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>5.3600000000000003</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
+        <v>100</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>8</v>
+      </c>
+      <c r="R106">
+        <v>100</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
         <v>2</v>
       </c>
-      <c r="L106">
-        <v>3.5699999999999998</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>8</v>
-      </c>
-      <c r="O106">
-        <v>100</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>8</v>
-      </c>
-      <c r="R106">
-        <v>100</v>
+      <c r="U106">
+        <v>3.1299999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -6081,6 +7038,15 @@
       <c r="R107">
         <v>100</v>
       </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -6137,6 +7103,15 @@
       <c r="R108">
         <v>100</v>
       </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -6193,6 +7168,15 @@
       <c r="R109">
         <v>75</v>
       </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -6249,6 +7233,15 @@
       <c r="R110">
         <v>100</v>
       </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -6305,6 +7298,15 @@
       <c r="R111">
         <v>100</v>
       </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>39</v>
+      </c>
+      <c r="U111">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6361,6 +7363,15 @@
       <c r="R112">
         <v>100</v>
       </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>34</v>
+      </c>
+      <c r="U112">
+        <v>53.130000000000003</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6417,6 +7428,15 @@
       <c r="R113">
         <v>100</v>
       </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>39</v>
+      </c>
+      <c r="U113">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6473,6 +7493,15 @@
       <c r="R114">
         <v>100</v>
       </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6529,6 +7558,15 @@
       <c r="R115">
         <v>100</v>
       </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>39</v>
+      </c>
+      <c r="U115">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6585,6 +7623,15 @@
       <c r="R116">
         <v>100</v>
       </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6641,6 +7688,15 @@
       <c r="R117">
         <v>100</v>
       </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>37</v>
+      </c>
+      <c r="U117">
+        <v>57.810000000000002</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6697,6 +7753,15 @@
       <c r="R118">
         <v>100</v>
       </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>35</v>
+      </c>
+      <c r="U118">
+        <v>54.689999999999998</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6753,6 +7818,15 @@
       <c r="R119">
         <v>100</v>
       </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>7</v>
+      </c>
+      <c r="U119">
+        <v>10.94</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6809,6 +7883,15 @@
       <c r="R120">
         <v>100</v>
       </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>39</v>
+      </c>
+      <c r="U120">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6865,6 +7948,15 @@
       <c r="R121">
         <v>100</v>
       </c>
+      <c r="S121">
+        <v>1</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6921,6 +8013,15 @@
       <c r="R122">
         <v>100</v>
       </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>21</v>
+      </c>
+      <c r="U122">
+        <v>32.810000000000002</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6977,6 +8078,15 @@
       <c r="R123">
         <v>75</v>
       </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -7033,6 +8143,15 @@
       <c r="R124">
         <v>100</v>
       </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>6</v>
+      </c>
+      <c r="U124">
+        <v>9.3800000000000008</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -7089,6 +8208,15 @@
       <c r="R125">
         <v>100</v>
       </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -7145,6 +8273,15 @@
       <c r="R126">
         <v>100</v>
       </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>25</v>
+      </c>
+      <c r="U126">
+        <v>39.060000000000002</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -7201,6 +8338,15 @@
       <c r="R127">
         <v>100</v>
       </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -7234,10 +8380,10 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>5.3600000000000003</v>
+        <v>7.1399999999999997</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -7256,6 +8402,15 @@
       </c>
       <c r="R128">
         <v>100</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>28</v>
+      </c>
+      <c r="U128">
+        <v>43.75</v>
       </c>
     </row>
     <row r="129">
@@ -7313,6 +8468,15 @@
       <c r="R129">
         <v>100</v>
       </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>39</v>
+      </c>
+      <c r="U129">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -7369,6 +8533,15 @@
       <c r="R130">
         <v>100</v>
       </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>9</v>
+      </c>
+      <c r="U130">
+        <v>14.06</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -7425,6 +8598,15 @@
       <c r="R131">
         <v>100</v>
       </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -7481,6 +8663,15 @@
       <c r="R132">
         <v>100</v>
       </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>15</v>
+      </c>
+      <c r="U132">
+        <v>23.440000000000001</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -7537,6 +8728,15 @@
       <c r="R133">
         <v>100</v>
       </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>37</v>
+      </c>
+      <c r="U133">
+        <v>57.810000000000002</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -7593,6 +8793,15 @@
       <c r="R134">
         <v>75</v>
       </c>
+      <c r="S134">
+        <v>1</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -7649,6 +8858,15 @@
       <c r="R135">
         <v>62.5</v>
       </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>7</v>
+      </c>
+      <c r="U135">
+        <v>10.94</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -7705,6 +8923,15 @@
       <c r="R136">
         <v>100</v>
       </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>32</v>
+      </c>
+      <c r="U136">
+        <v>50</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -7761,6 +8988,15 @@
       <c r="R137">
         <v>100</v>
       </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>39</v>
+      </c>
+      <c r="U137">
+        <v>60.939999999999998</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -7817,6 +9053,15 @@
       <c r="R138">
         <v>100</v>
       </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>17</v>
+      </c>
+      <c r="U138">
+        <v>26.559999999999999</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -7850,10 +9095,10 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -7872,6 +9117,15 @@
       </c>
       <c r="R139">
         <v>100</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="140">
@@ -7929,6 +9183,15 @@
       <c r="R140">
         <v>100</v>
       </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>31</v>
+      </c>
+      <c r="U140">
+        <v>48.439999999999998</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -7962,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>1.79</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -7984,6 +9247,15 @@
       </c>
       <c r="R141">
         <v>100</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>8</v>
+      </c>
+      <c r="U141">
+        <v>12.5</v>
       </c>
     </row>
     <row r="142">
@@ -8041,6 +9313,15 @@
       <c r="R142">
         <v>75</v>
       </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -8097,6 +9378,15 @@
       <c r="R143">
         <v>100</v>
       </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>3.1299999999999999</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -8152,6 +9442,15 @@
       </c>
       <c r="R144">
         <v>100</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>8</v>
+      </c>
+      <c r="U144">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -8160,7 +9459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:G144"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8182,25 +9481,31 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8222,6 +9527,9 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -8242,6 +9550,9 @@
       <c r="F4">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G4">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -8262,6 +9573,9 @@
       <c r="F5">
         <v>0.88333333333366681</v>
       </c>
+      <c r="G5">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -8282,6 +9596,9 @@
       <c r="F6">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G6">
+        <v>0.83333333333348492</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -8302,6 +9619,9 @@
       <c r="F7">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G7">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -8322,6 +9642,9 @@
       <c r="F8">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -8342,6 +9665,9 @@
       <c r="F9">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -8362,6 +9688,9 @@
       <c r="F10">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G10">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -8382,6 +9711,9 @@
       <c r="F11">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -8402,6 +9734,9 @@
       <c r="F12">
         <v>0.98550724637698295</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -8422,6 +9757,9 @@
       <c r="F13">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -8442,6 +9780,9 @@
       <c r="F14">
         <v>0.86956521739148229</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -8462,6 +9803,9 @@
       <c r="F15">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -8482,6 +9826,9 @@
       <c r="F16">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G16">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -8502,6 +9849,9 @@
       <c r="F17">
         <v>0.88333333333366681</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -8522,6 +9872,9 @@
       <c r="F18">
         <v>0.9710144927530564</v>
       </c>
+      <c r="G18">
+        <v>0.83333333333348492</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -8542,6 +9895,9 @@
       <c r="F19">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -8562,6 +9918,9 @@
       <c r="F20">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -8582,6 +9941,9 @@
       <c r="F21">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G21">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -8602,6 +9964,9 @@
       <c r="F22">
         <v>0.95238095238073583</v>
       </c>
+      <c r="G22">
+        <v>0.90000000000009095</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -8622,6 +9987,9 @@
       <c r="F23">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G23">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -8642,6 +10010,9 @@
       <c r="F24">
         <v>0.93333333333339397</v>
       </c>
+      <c r="G24">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -8662,6 +10033,9 @@
       <c r="F25">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -8682,6 +10056,9 @@
       <c r="F26">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G26">
+        <v>0.83333333333348492</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -8702,6 +10079,9 @@
       <c r="F27">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -8722,6 +10102,9 @@
       <c r="F28">
         <v>0.9710144927530564</v>
       </c>
+      <c r="G28">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -8742,6 +10125,9 @@
       <c r="F29">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -8762,6 +10148,9 @@
       <c r="F30">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -8782,6 +10171,9 @@
       <c r="F31">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G31">
+        <v>0.50000000000045475</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -8802,6 +10194,9 @@
       <c r="F32">
         <v>0.93750000000090949</v>
       </c>
+      <c r="G32">
+        <v>0.75000000000045475</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -8822,6 +10217,9 @@
       <c r="F33">
         <v>0.9285714285715585</v>
       </c>
+      <c r="G33">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -8842,6 +10240,9 @@
       <c r="F34">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G34">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -8862,6 +10263,9 @@
       <c r="F35">
         <v>0.98333333333266637</v>
       </c>
+      <c r="G35">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -8882,6 +10286,9 @@
       <c r="F36">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G36">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -8902,6 +10309,9 @@
       <c r="F37">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G37">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -8922,6 +10332,9 @@
       <c r="F38">
         <v>0.8985507246375164</v>
       </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -8941,6 +10354,9 @@
       </c>
       <c r="F39">
         <v>0.95652173913094884</v>
+      </c>
+      <c r="G39">
+        <v>0.99999999999909051</v>
       </c>
     </row>
     <row r="40">
@@ -8962,6 +10378,9 @@
       <c r="F40">
         <v>0.81666666666706078</v>
       </c>
+      <c r="G40">
+        <v>0.75000000000045475</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -8981,6 +10400,9 @@
       </c>
       <c r="F41">
         <v>0.90476190476192642</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -9002,6 +10424,9 @@
       <c r="F42">
         <v>0.79999999999972715</v>
       </c>
+      <c r="G42">
+        <v>0.79999999999972715</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -9022,6 +10447,9 @@
       <c r="F43">
         <v>0.9499999999998181</v>
       </c>
+      <c r="G43">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -9042,6 +10470,9 @@
       <c r="F44">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G44">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -9062,6 +10493,9 @@
       <c r="F45">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G45">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -9082,6 +10516,9 @@
       <c r="F46">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -9102,6 +10539,9 @@
       <c r="F47">
         <v>0.9710144927530564</v>
       </c>
+      <c r="G47">
+        <v>0.70000000000027285</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -9122,6 +10562,9 @@
       <c r="F48">
         <v>0.9420289855070223</v>
       </c>
+      <c r="G48">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -9142,6 +10585,9 @@
       <c r="F49">
         <v>0.88888888888914153</v>
       </c>
+      <c r="G49">
+        <v>0.50000000000045475</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -9162,6 +10608,9 @@
       <c r="F50">
         <v>0.9420289855070223</v>
       </c>
+      <c r="G50">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -9182,6 +10631,9 @@
       <c r="F51">
         <v>0.96231884057942807</v>
       </c>
+      <c r="G51">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -9202,6 +10654,9 @@
       <c r="F52">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -9222,6 +10677,9 @@
       <c r="F53">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G53">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -9242,6 +10700,9 @@
       <c r="F54">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G54">
+        <v>0.83333333333348492</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -9262,6 +10723,9 @@
       <c r="F55">
         <v>0.94927536231898557</v>
       </c>
+      <c r="G55">
+        <v>0.66666666666651508</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -9282,6 +10746,9 @@
       <c r="F56">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -9302,6 +10769,9 @@
       <c r="F57">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G57">
+        <v>0.9499999999998181</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -9322,6 +10792,9 @@
       <c r="F58">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G58">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -9342,6 +10815,9 @@
       <c r="F59">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G59">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -9362,6 +10838,9 @@
       <c r="F60">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G60">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -9382,6 +10861,9 @@
       <c r="F61">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -9401,6 +10883,9 @@
       </c>
       <c r="F62">
         <v>0.95652173913094884</v>
+      </c>
+      <c r="G62">
+        <v>0.33333333333325749</v>
       </c>
     </row>
     <row r="63">
@@ -9422,6 +10907,9 @@
       <c r="F63">
         <v>0.82500000000027285</v>
       </c>
+      <c r="G63">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -9442,6 +10930,9 @@
       <c r="F64">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -9462,6 +10953,9 @@
       <c r="F65">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G65">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -9482,6 +10976,9 @@
       <c r="F66">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G66">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -9502,6 +10999,9 @@
       <c r="F67">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G67">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -9522,6 +11022,9 @@
       <c r="F68">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G68">
+        <v>0.83333333333348492</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -9542,6 +11045,9 @@
       <c r="F69">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -9562,6 +11068,9 @@
       <c r="F70">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G70">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -9582,6 +11091,9 @@
       <c r="F71">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G71">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -9602,6 +11114,9 @@
       <c r="F72">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G72">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -9622,6 +11137,9 @@
       <c r="F73">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -9642,6 +11160,9 @@
       <c r="F74">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G74">
+        <v>0.9749999999994543</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -9662,6 +11183,9 @@
       <c r="F75">
         <v>0.91304347826098819</v>
       </c>
+      <c r="G75">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -9682,6 +11206,9 @@
       <c r="F76">
         <v>0.9285714285715585</v>
       </c>
+      <c r="G76">
+        <v>0.87500000000045475</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -9702,6 +11229,9 @@
       <c r="F77">
         <v>0.95238095238073583</v>
       </c>
+      <c r="G77">
+        <v>0.79999999999972715</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -9722,6 +11252,9 @@
       <c r="F78">
         <v>0.95072463768065063</v>
       </c>
+      <c r="G78">
+        <v>0.39999999999986358</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -9742,6 +11275,9 @@
       <c r="F79">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -9762,6 +11298,9 @@
       <c r="F80">
         <v>0.91999999999916326</v>
       </c>
+      <c r="G80">
+        <v>0.50000000000045475</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -9782,6 +11321,9 @@
       <c r="F81">
         <v>0.95238095238073583</v>
       </c>
+      <c r="G81">
+        <v>0.87500000000045475</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -9802,6 +11344,9 @@
       <c r="F82">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -9822,6 +11367,9 @@
       <c r="F83">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G83">
+        <v>0.75000000000045475</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -9842,6 +11390,9 @@
       <c r="F84">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -9862,6 +11413,9 @@
       <c r="F85">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G85">
+        <v>0.75000000000045475</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -9882,6 +11436,9 @@
       <c r="F86">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -9902,6 +11459,9 @@
       <c r="F87">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -9922,6 +11482,9 @@
       <c r="F88">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -9942,6 +11505,9 @@
       <c r="F89">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G89">
+        <v>0.90000000000009095</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -9962,6 +11528,9 @@
       <c r="F90">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -9981,6 +11550,9 @@
       </c>
       <c r="F91">
         <v>0.95652173913094884</v>
+      </c>
+      <c r="G91">
+        <v>0.33333333333325749</v>
       </c>
     </row>
     <row r="92">
@@ -10002,6 +11574,9 @@
       <c r="F92">
         <v>0.89523809523825548</v>
       </c>
+      <c r="G92">
+        <v>0.93333333333339397</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -10022,6 +11597,9 @@
       <c r="F93">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G93">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -10042,6 +11620,9 @@
       <c r="F94">
         <v>0.93809523809522943</v>
       </c>
+      <c r="G94">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -10062,6 +11643,9 @@
       <c r="F95">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -10082,6 +11666,9 @@
       <c r="F96">
         <v>0.88095238095274908</v>
       </c>
+      <c r="G96">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -10102,6 +11689,9 @@
       <c r="F97">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -10122,6 +11712,9 @@
       <c r="F98">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -10142,6 +11735,9 @@
       <c r="F99">
         <v>0.98333333333266637</v>
       </c>
+      <c r="G99">
+        <v>0.90000000000009095</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -10162,6 +11758,9 @@
       <c r="F100">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G100">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -10182,6 +11781,9 @@
       <c r="F101">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G101">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -10202,6 +11804,9 @@
       <c r="F102">
         <v>0.92753623188491474</v>
       </c>
+      <c r="G102">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -10222,6 +11827,9 @@
       <c r="F103">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G103">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -10242,6 +11850,9 @@
       <c r="F104">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -10262,6 +11873,9 @@
       <c r="F105">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G105">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -10282,6 +11896,9 @@
       <c r="F106">
         <v>0.89147286821707894</v>
       </c>
+      <c r="G106">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -10302,6 +11919,9 @@
       <c r="F107">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -10322,6 +11942,9 @@
       <c r="F108">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -10342,6 +11965,9 @@
       <c r="F109">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G109">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -10362,6 +11988,9 @@
       <c r="F110">
         <v>0.96376811594291212</v>
       </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -10382,6 +12011,9 @@
       <c r="F111">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G111">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -10402,6 +12034,9 @@
       <c r="F112">
         <v>0.95312500000090949</v>
       </c>
+      <c r="G112">
+        <v>0.59999999999990905</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -10422,6 +12057,9 @@
       <c r="F113">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G113">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -10442,6 +12080,9 @@
       <c r="F114">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -10462,6 +12103,9 @@
       <c r="F115">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G115">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -10482,6 +12126,9 @@
       <c r="F116">
         <v>0.9710144927530564</v>
       </c>
+      <c r="G116">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -10502,6 +12149,9 @@
       <c r="F117">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G117">
+        <v>0.59999999999990905</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -10522,6 +12172,9 @@
       <c r="F118">
         <v>0.91999999999916326</v>
       </c>
+      <c r="G118">
+        <v>0.39999999999986358</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -10542,6 +12195,9 @@
       <c r="F119">
         <v>0.96376811594291212</v>
       </c>
+      <c r="G119">
+        <v>0.90000000000009095</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -10562,6 +12218,9 @@
       <c r="F120">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G120">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -10582,6 +12241,9 @@
       <c r="F121">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -10602,6 +12264,9 @@
       <c r="F122">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G122">
+        <v>0.50000000000045475</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -10622,6 +12287,9 @@
       <c r="F123">
         <v>0.96376811594291212</v>
       </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -10642,6 +12310,9 @@
       <c r="F124">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G124">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -10662,6 +12333,9 @@
       <c r="F125">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -10682,6 +12356,9 @@
       <c r="F126">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G126">
+        <v>0.83333333333348492</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -10702,6 +12379,9 @@
       <c r="F127">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -10722,6 +12402,9 @@
       <c r="F128">
         <v>0.90476190476192642</v>
       </c>
+      <c r="G128">
+        <v>0.75000000000045475</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -10742,6 +12425,9 @@
       <c r="F129">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G129">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -10762,6 +12448,9 @@
       <c r="F130">
         <v>0.90952380952421663</v>
       </c>
+      <c r="G130">
+        <v>0.87500000000045475</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -10782,6 +12471,9 @@
       <c r="F131">
         <v>0.93478260869505903</v>
       </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -10802,6 +12494,9 @@
       <c r="F132">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G132">
+        <v>0.87500000000045475</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -10822,6 +12517,9 @@
       <c r="F133">
         <v>0.9429824561402711</v>
       </c>
+      <c r="G133">
+        <v>0.59999999999990905</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -10842,6 +12540,9 @@
       <c r="F134">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -10862,6 +12563,9 @@
       <c r="F135">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G135">
+        <v>0.90000000000009095</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -10882,6 +12586,9 @@
       <c r="F136">
         <v>0.94927536231898557</v>
       </c>
+      <c r="G136">
+        <v>0.66666666666651508</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -10902,6 +12609,9 @@
       <c r="F137">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G137">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -10922,6 +12632,9 @@
       <c r="F138">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G138">
+        <v>0.83333333333348492</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -10942,6 +12655,9 @@
       <c r="F139">
         <v>0.84375000000045475</v>
       </c>
+      <c r="G139">
+        <v>0.87500000000045475</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -10962,6 +12678,9 @@
       <c r="F140">
         <v>0.91904761904788757</v>
       </c>
+      <c r="G140">
+        <v>0.39999999999986358</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -10982,6 +12701,9 @@
       <c r="F141">
         <v>0.79999999999972715</v>
       </c>
+      <c r="G141">
+        <v>0.33333333333325749</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -11002,6 +12724,9 @@
       <c r="F142">
         <v>0.98550724637698295</v>
       </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -11022,6 +12747,9 @@
       <c r="F143">
         <v>0.95652173913094884</v>
       </c>
+      <c r="G143">
+        <v>0.99999999999909051</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -11041,6 +12769,9 @@
       </c>
       <c r="F144">
         <v>0.95652173913094884</v>
+      </c>
+      <c r="G144">
+        <v>0.83333333333348492</v>
       </c>
     </row>
   </sheetData>

--- a/output/tables/table1_and_2_data.xlsx
+++ b/output/tables/table1_and_2_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>eWGARP</t>
   </si>
@@ -31,16 +31,109 @@
     <t>eWARP</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Violations_frac</t>
+  </si>
+  <si>
     <t>eGARP</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Violations_frac</t>
   </si>
   <si>
     <t>eSARP</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Violations_frac</t>
+  </si>
+  <si>
     <t>eHARP</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Violations_frac</t>
+  </si>
+  <si>
     <t>eCM</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Violations_frac</t>
+  </si>
+  <si>
+    <t>eSGARP</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Violations_frac</t>
+  </si>
+  <si>
+    <t>eWGARP</t>
+  </si>
+  <si>
+    <t>AEI</t>
+  </si>
+  <si>
+    <t>eWARP</t>
+  </si>
+  <si>
+    <t>AEI</t>
+  </si>
+  <si>
+    <t>eGARP</t>
+  </si>
+  <si>
+    <t>AEI</t>
+  </si>
+  <si>
+    <t>eSARP</t>
+  </si>
+  <si>
+    <t>AEI</t>
+  </si>
+  <si>
+    <t>eHARP</t>
+  </si>
+  <si>
+    <t>AEI</t>
+  </si>
+  <si>
+    <t>eCM</t>
+  </si>
+  <si>
+    <t>AEI</t>
   </si>
   <si>
     <t>eSGARP</t>
@@ -113,49 +206,49 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="U1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -169,58 +262,58 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -332,7 +425,7 @@
         <v>8</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -341,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -350,7 +443,7 @@
         <v>39</v>
       </c>
       <c r="U4">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="5">
@@ -361,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -370,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -379,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -388,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>7.1399999999999997</v>
+        <v>0.071400000000000005</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -397,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -406,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="R5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -415,7 +508,7 @@
         <v>31</v>
       </c>
       <c r="U5">
-        <v>48.439999999999998</v>
+        <v>0.4844</v>
       </c>
     </row>
     <row r="6">
@@ -462,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -471,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="R6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -480,7 +573,7 @@
         <v>25</v>
       </c>
       <c r="U6">
-        <v>39.060000000000002</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="7">
@@ -527,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -536,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -545,7 +638,7 @@
         <v>39</v>
       </c>
       <c r="U7">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="O8">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -601,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="R8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -666,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -722,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -731,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -740,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="U10">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="11">
@@ -787,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -796,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="R11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -861,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="R12">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -917,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -926,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="R13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -982,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -991,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="R14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1047,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1056,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="R15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1112,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1121,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="R16">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1130,7 +1223,7 @@
         <v>39</v>
       </c>
       <c r="U16">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="17">
@@ -1177,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1186,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="R17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1242,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="O18">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1251,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1260,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="U18">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19">
@@ -1307,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1316,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1372,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1381,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="R20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1437,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1446,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="R21">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -1455,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="U21">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="22">
@@ -1502,7 +1595,7 @@
         <v>8</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1511,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -1520,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="U22">
-        <v>7.8099999999999996</v>
+        <v>0.078100000000000003</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1576,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -1585,7 +1678,7 @@
         <v>39</v>
       </c>
       <c r="U23">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="24">
@@ -1632,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1641,7 +1734,7 @@
         <v>8</v>
       </c>
       <c r="R24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -1650,7 +1743,7 @@
         <v>37</v>
       </c>
       <c r="U24">
-        <v>57.810000000000002</v>
+        <v>0.57809999999999995</v>
       </c>
     </row>
     <row r="25">
@@ -1697,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1706,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="R25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -1762,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="O26">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1771,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="R26">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -1780,7 +1873,7 @@
         <v>25</v>
       </c>
       <c r="U26">
-        <v>39.060000000000002</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="27">
@@ -1827,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1836,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="R27">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -1892,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -1901,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="R28">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -1910,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="U28">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1957,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -1966,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="R29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -2022,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2031,7 +2124,7 @@
         <v>8</v>
       </c>
       <c r="R30">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2087,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="O31">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2096,7 +2189,7 @@
         <v>8</v>
       </c>
       <c r="R31">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2105,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="U31">
-        <v>39.060000000000002</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="32">
@@ -2152,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2161,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="R32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2170,7 +2263,7 @@
         <v>14</v>
       </c>
       <c r="U32">
-        <v>21.879999999999999</v>
+        <v>0.21879999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -2217,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2226,7 +2319,7 @@
         <v>8</v>
       </c>
       <c r="R33">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2235,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="U33">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -2282,7 +2375,7 @@
         <v>8</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2291,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="R34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2300,7 +2393,7 @@
         <v>39</v>
       </c>
       <c r="U34">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="35">
@@ -2356,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="R35">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -2365,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="U35">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -2412,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2421,7 +2514,7 @@
         <v>8</v>
       </c>
       <c r="R36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -2430,7 +2523,7 @@
         <v>39</v>
       </c>
       <c r="U36">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="37">
@@ -2477,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2486,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="R37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2495,7 +2588,7 @@
         <v>39</v>
       </c>
       <c r="U37">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="38">
@@ -2542,7 +2635,7 @@
         <v>8</v>
       </c>
       <c r="O38">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2551,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="R38">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -2607,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="O39">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2616,7 +2709,7 @@
         <v>8</v>
       </c>
       <c r="R39">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -2625,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="U39">
-        <v>9.3800000000000008</v>
+        <v>0.093799999999999994</v>
       </c>
     </row>
     <row r="40">
@@ -2636,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>7.1399999999999997</v>
+        <v>0.071400000000000005</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2645,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>7.1399999999999997</v>
+        <v>0.071400000000000005</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2654,7 +2747,7 @@
         <v>8</v>
       </c>
       <c r="I40">
-        <v>14.289999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2663,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="L40">
-        <v>16.07</v>
+        <v>0.16070000000000001</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2672,7 +2765,7 @@
         <v>8</v>
       </c>
       <c r="O40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2681,7 +2774,7 @@
         <v>8</v>
       </c>
       <c r="R40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -2690,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="U40">
-        <v>15.630000000000001</v>
+        <v>0.15620000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -2737,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2746,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="R41">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -2766,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>10.710000000000001</v>
+        <v>0.1071</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2775,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>10.710000000000001</v>
+        <v>0.1071</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2784,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="I42">
-        <v>14.289999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2793,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="L42">
-        <v>19.640000000000001</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2802,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="O42">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2811,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="R42">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -2820,7 +2913,7 @@
         <v>29</v>
       </c>
       <c r="U42">
-        <v>45.310000000000002</v>
+        <v>0.4531</v>
       </c>
     </row>
     <row r="43">
@@ -2831,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2840,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2849,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2858,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2867,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="O43">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2876,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="R43">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -2885,7 +2978,7 @@
         <v>4</v>
       </c>
       <c r="U43">
-        <v>6.25</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="44">
@@ -2932,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="O44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2941,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="R44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -2950,7 +3043,7 @@
         <v>39</v>
       </c>
       <c r="U44">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="45">
@@ -2997,7 +3090,7 @@
         <v>8</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3006,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="R45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3015,7 +3108,7 @@
         <v>39</v>
       </c>
       <c r="U45">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="46">
@@ -3062,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="O46">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3071,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="R46">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -3136,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="R47">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3145,7 +3238,7 @@
         <v>32</v>
       </c>
       <c r="U47">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -3192,7 +3285,7 @@
         <v>8</v>
       </c>
       <c r="O48">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3201,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="R48">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3210,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="U48">
-        <v>6.25</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="49">
@@ -3221,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3230,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3239,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3248,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3257,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="O49">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3266,7 +3359,7 @@
         <v>8</v>
       </c>
       <c r="R49">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3275,7 +3368,7 @@
         <v>36</v>
       </c>
       <c r="U49">
-        <v>56.25</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="50">
@@ -3322,7 +3415,7 @@
         <v>8</v>
       </c>
       <c r="O50">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3331,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="R50">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -3340,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="U50">
-        <v>6.25</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="51">
@@ -3387,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="O51">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3396,7 +3489,7 @@
         <v>8</v>
       </c>
       <c r="R51">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -3405,7 +3498,7 @@
         <v>41</v>
       </c>
       <c r="U51">
-        <v>64.060000000000002</v>
+        <v>0.64059999999999995</v>
       </c>
     </row>
     <row r="52">
@@ -3452,7 +3545,7 @@
         <v>8</v>
       </c>
       <c r="O52">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3461,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="R52">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -3517,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="O53">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3526,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="R53">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -3535,7 +3628,7 @@
         <v>39</v>
       </c>
       <c r="U53">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="54">
@@ -3582,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="O54">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3591,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="R54">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -3600,7 +3693,7 @@
         <v>15</v>
       </c>
       <c r="U54">
-        <v>23.440000000000001</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="55">
@@ -3647,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="O55">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3656,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="R55">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -3665,7 +3758,7 @@
         <v>35</v>
       </c>
       <c r="U55">
-        <v>54.689999999999998</v>
+        <v>0.54690000000000005</v>
       </c>
     </row>
     <row r="56">
@@ -3712,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="O56">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3721,7 +3814,7 @@
         <v>8</v>
       </c>
       <c r="R56">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -3777,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="O57">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3786,7 +3879,7 @@
         <v>8</v>
       </c>
       <c r="R57">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -3795,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="U57">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="58">
@@ -3842,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="O58">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3851,7 +3944,7 @@
         <v>8</v>
       </c>
       <c r="R58">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -3860,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="U58">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -3907,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="O59">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3916,7 +4009,7 @@
         <v>8</v>
       </c>
       <c r="R59">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -3925,7 +4018,7 @@
         <v>39</v>
       </c>
       <c r="U59">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="60">
@@ -3972,7 +4065,7 @@
         <v>8</v>
       </c>
       <c r="O60">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3981,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="R60">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -3990,7 +4083,7 @@
         <v>39</v>
       </c>
       <c r="U60">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="61">
@@ -4046,7 +4139,7 @@
         <v>7</v>
       </c>
       <c r="R61">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -4102,7 +4195,7 @@
         <v>8</v>
       </c>
       <c r="O62">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4111,7 +4204,7 @@
         <v>8</v>
       </c>
       <c r="R62">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -4120,7 +4213,7 @@
         <v>39</v>
       </c>
       <c r="U62">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="63">
@@ -4131,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4140,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4149,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="I63">
-        <v>7.1399999999999997</v>
+        <v>0.071400000000000005</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4158,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="L63">
-        <v>8.9299999999999997</v>
+        <v>0.089300000000000004</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4167,7 +4260,7 @@
         <v>8</v>
       </c>
       <c r="O63">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -4176,7 +4269,7 @@
         <v>8</v>
       </c>
       <c r="R63">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -4185,7 +4278,7 @@
         <v>34</v>
       </c>
       <c r="U63">
-        <v>53.130000000000003</v>
+        <v>0.53120000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4241,7 +4334,7 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -4297,7 +4390,7 @@
         <v>8</v>
       </c>
       <c r="O65">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -4306,7 +4399,7 @@
         <v>8</v>
       </c>
       <c r="R65">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -4315,7 +4408,7 @@
         <v>39</v>
       </c>
       <c r="U65">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="66">
@@ -4362,7 +4455,7 @@
         <v>8</v>
       </c>
       <c r="O66">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4371,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="R66">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4380,7 +4473,7 @@
         <v>4</v>
       </c>
       <c r="U66">
-        <v>6.25</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="67">
@@ -4427,7 +4520,7 @@
         <v>8</v>
       </c>
       <c r="O67">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4436,7 +4529,7 @@
         <v>8</v>
       </c>
       <c r="R67">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -4445,7 +4538,7 @@
         <v>39</v>
       </c>
       <c r="U67">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="68">
@@ -4492,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="O68">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4501,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="R68">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -4510,7 +4603,7 @@
         <v>18</v>
       </c>
       <c r="U68">
-        <v>28.129999999999999</v>
+        <v>0.28120000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4557,7 +4650,7 @@
         <v>8</v>
       </c>
       <c r="O69">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4566,7 +4659,7 @@
         <v>8</v>
       </c>
       <c r="R69">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -4622,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="O70">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4631,7 +4724,7 @@
         <v>8</v>
       </c>
       <c r="R70">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -4640,7 +4733,7 @@
         <v>39</v>
       </c>
       <c r="U70">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="71">
@@ -4687,7 +4780,7 @@
         <v>8</v>
       </c>
       <c r="O71">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4696,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="R71">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -4705,7 +4798,7 @@
         <v>39</v>
       </c>
       <c r="U71">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="72">
@@ -4752,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="O72">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4761,7 +4854,7 @@
         <v>8</v>
       </c>
       <c r="R72">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -4770,7 +4863,7 @@
         <v>39</v>
       </c>
       <c r="U72">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="73">
@@ -4826,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="R73">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -4846,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4855,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4864,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4873,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4882,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="O74">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4891,7 +4984,7 @@
         <v>8</v>
       </c>
       <c r="R74">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -4900,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="U74">
-        <v>6.25</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="75">
@@ -4947,7 +5040,7 @@
         <v>8</v>
       </c>
       <c r="O75">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4956,7 +5049,7 @@
         <v>8</v>
       </c>
       <c r="R75">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -4965,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="U75">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -5012,7 +5105,7 @@
         <v>8</v>
       </c>
       <c r="O76">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -5021,7 +5114,7 @@
         <v>8</v>
       </c>
       <c r="R76">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -5030,7 +5123,7 @@
         <v>9</v>
       </c>
       <c r="U76">
-        <v>14.06</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="77">
@@ -5077,7 +5170,7 @@
         <v>8</v>
       </c>
       <c r="O77">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -5086,7 +5179,7 @@
         <v>8</v>
       </c>
       <c r="R77">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -5095,7 +5188,7 @@
         <v>14</v>
       </c>
       <c r="U77">
-        <v>21.879999999999999</v>
+        <v>0.21879999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -5142,7 +5235,7 @@
         <v>8</v>
       </c>
       <c r="O78">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -5151,7 +5244,7 @@
         <v>8</v>
       </c>
       <c r="R78">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -5160,7 +5253,7 @@
         <v>41</v>
       </c>
       <c r="U78">
-        <v>64.060000000000002</v>
+        <v>0.64059999999999995</v>
       </c>
     </row>
     <row r="79">
@@ -5207,7 +5300,7 @@
         <v>7</v>
       </c>
       <c r="O79">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -5216,7 +5309,7 @@
         <v>8</v>
       </c>
       <c r="R79">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -5272,7 +5365,7 @@
         <v>8</v>
       </c>
       <c r="O80">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5281,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="R80">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -5290,7 +5383,7 @@
         <v>39</v>
       </c>
       <c r="U80">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="81">
@@ -5337,7 +5430,7 @@
         <v>8</v>
       </c>
       <c r="O81">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -5346,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="R81">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -5355,7 +5448,7 @@
         <v>6</v>
       </c>
       <c r="U81">
-        <v>9.3800000000000008</v>
+        <v>0.093799999999999994</v>
       </c>
     </row>
     <row r="82">
@@ -5402,7 +5495,7 @@
         <v>8</v>
       </c>
       <c r="O82">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5411,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="R82">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -5467,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="O83">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5476,7 +5569,7 @@
         <v>7</v>
       </c>
       <c r="R83">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -5485,7 +5578,7 @@
         <v>21</v>
       </c>
       <c r="U83">
-        <v>32.810000000000002</v>
+        <v>0.3281</v>
       </c>
     </row>
     <row r="84">
@@ -5532,7 +5625,7 @@
         <v>8</v>
       </c>
       <c r="O84">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5541,7 +5634,7 @@
         <v>8</v>
       </c>
       <c r="R84">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -5597,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="O85">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -5606,7 +5699,7 @@
         <v>5</v>
       </c>
       <c r="R85">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -5615,7 +5708,7 @@
         <v>28</v>
       </c>
       <c r="U85">
-        <v>43.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="86">
@@ -5662,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="O86">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5671,7 +5764,7 @@
         <v>8</v>
       </c>
       <c r="R86">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -5727,7 +5820,7 @@
         <v>8</v>
       </c>
       <c r="O87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -5736,7 +5829,7 @@
         <v>8</v>
       </c>
       <c r="R87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -5792,7 +5885,7 @@
         <v>2</v>
       </c>
       <c r="O88">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5801,7 +5894,7 @@
         <v>8</v>
       </c>
       <c r="R88">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -5821,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -5830,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5839,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="I89">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5848,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="L89">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5857,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="O89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5866,7 +5959,7 @@
         <v>8</v>
       </c>
       <c r="R89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -5875,7 +5968,7 @@
         <v>5</v>
       </c>
       <c r="U89">
-        <v>7.8099999999999996</v>
+        <v>0.078100000000000003</v>
       </c>
     </row>
     <row r="90">
@@ -5922,7 +6015,7 @@
         <v>8</v>
       </c>
       <c r="O90">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5931,7 +6024,7 @@
         <v>8</v>
       </c>
       <c r="R90">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -5987,7 +6080,7 @@
         <v>8</v>
       </c>
       <c r="O91">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5996,7 +6089,7 @@
         <v>8</v>
       </c>
       <c r="R91">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -6005,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="U91">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="92">
@@ -6016,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -6025,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -6034,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="I92">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -6043,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="L92">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -6052,7 +6145,7 @@
         <v>8</v>
       </c>
       <c r="O92">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -6061,7 +6154,7 @@
         <v>8</v>
       </c>
       <c r="R92">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -6070,7 +6163,7 @@
         <v>9</v>
       </c>
       <c r="U92">
-        <v>14.06</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="93">
@@ -6117,7 +6210,7 @@
         <v>8</v>
       </c>
       <c r="O93">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -6126,7 +6219,7 @@
         <v>8</v>
       </c>
       <c r="R93">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -6135,7 +6228,7 @@
         <v>39</v>
       </c>
       <c r="U93">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="94">
@@ -6182,7 +6275,7 @@
         <v>8</v>
       </c>
       <c r="O94">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -6191,7 +6284,7 @@
         <v>8</v>
       </c>
       <c r="R94">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -6200,7 +6293,7 @@
         <v>37</v>
       </c>
       <c r="U94">
-        <v>57.810000000000002</v>
+        <v>0.57809999999999995</v>
       </c>
     </row>
     <row r="95">
@@ -6247,7 +6340,7 @@
         <v>8</v>
       </c>
       <c r="O95">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -6256,7 +6349,7 @@
         <v>8</v>
       </c>
       <c r="R95">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -6312,7 +6405,7 @@
         <v>8</v>
       </c>
       <c r="O96">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -6321,7 +6414,7 @@
         <v>8</v>
       </c>
       <c r="R96">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -6330,7 +6423,7 @@
         <v>27</v>
       </c>
       <c r="U96">
-        <v>42.189999999999998</v>
+        <v>0.4219</v>
       </c>
     </row>
     <row r="97">
@@ -6377,7 +6470,7 @@
         <v>8</v>
       </c>
       <c r="O97">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6386,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="R97">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -6442,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="O98">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6451,7 +6544,7 @@
         <v>8</v>
       </c>
       <c r="R98">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -6507,7 +6600,7 @@
         <v>8</v>
       </c>
       <c r="O99">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6516,7 +6609,7 @@
         <v>8</v>
       </c>
       <c r="R99">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -6525,7 +6618,7 @@
         <v>28</v>
       </c>
       <c r="U99">
-        <v>43.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100">
@@ -6572,7 +6665,7 @@
         <v>8</v>
       </c>
       <c r="O100">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -6581,7 +6674,7 @@
         <v>8</v>
       </c>
       <c r="R100">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -6590,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="U100">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="101">
@@ -6637,7 +6730,7 @@
         <v>8</v>
       </c>
       <c r="O101">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -6646,7 +6739,7 @@
         <v>8</v>
       </c>
       <c r="R101">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -6655,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="U101">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -6702,7 +6795,7 @@
         <v>8</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -6711,7 +6804,7 @@
         <v>8</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -6720,7 +6813,7 @@
         <v>32</v>
       </c>
       <c r="U102">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
@@ -6767,7 +6860,7 @@
         <v>8</v>
       </c>
       <c r="O103">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -6776,7 +6869,7 @@
         <v>8</v>
       </c>
       <c r="R103">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -6785,7 +6878,7 @@
         <v>39</v>
       </c>
       <c r="U103">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="104">
@@ -6832,7 +6925,7 @@
         <v>8</v>
       </c>
       <c r="O104">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -6841,7 +6934,7 @@
         <v>8</v>
       </c>
       <c r="R104">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -6897,7 +6990,7 @@
         <v>8</v>
       </c>
       <c r="O105">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -6906,7 +6999,7 @@
         <v>8</v>
       </c>
       <c r="R105">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -6915,7 +7008,7 @@
         <v>39</v>
       </c>
       <c r="U105">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="106">
@@ -6926,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6935,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -6944,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6953,7 +7046,7 @@
         <v>3</v>
       </c>
       <c r="L106">
-        <v>5.3600000000000003</v>
+        <v>0.053600000000000002</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -6962,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="O106">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -6971,7 +7064,7 @@
         <v>8</v>
       </c>
       <c r="R106">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -6980,7 +7073,7 @@
         <v>2</v>
       </c>
       <c r="U106">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -7027,7 +7120,7 @@
         <v>8</v>
       </c>
       <c r="O107">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -7036,7 +7129,7 @@
         <v>8</v>
       </c>
       <c r="R107">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -7092,7 +7185,7 @@
         <v>8</v>
       </c>
       <c r="O108">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -7101,7 +7194,7 @@
         <v>8</v>
       </c>
       <c r="R108">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -7166,7 +7259,7 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -7175,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="U109">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -7231,7 +7324,7 @@
         <v>8</v>
       </c>
       <c r="R110">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -7287,7 +7380,7 @@
         <v>8</v>
       </c>
       <c r="O111">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7296,7 +7389,7 @@
         <v>8</v>
       </c>
       <c r="R111">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -7305,7 +7398,7 @@
         <v>39</v>
       </c>
       <c r="U111">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="112">
@@ -7352,7 +7445,7 @@
         <v>8</v>
       </c>
       <c r="O112">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7361,7 +7454,7 @@
         <v>8</v>
       </c>
       <c r="R112">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -7370,7 +7463,7 @@
         <v>34</v>
       </c>
       <c r="U112">
-        <v>53.130000000000003</v>
+        <v>0.53120000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -7417,7 +7510,7 @@
         <v>8</v>
       </c>
       <c r="O113">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7426,7 +7519,7 @@
         <v>8</v>
       </c>
       <c r="R113">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -7435,7 +7528,7 @@
         <v>39</v>
       </c>
       <c r="U113">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="114">
@@ -7482,7 +7575,7 @@
         <v>8</v>
       </c>
       <c r="O114">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -7491,7 +7584,7 @@
         <v>8</v>
       </c>
       <c r="R114">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S114">
         <v>1</v>
@@ -7547,7 +7640,7 @@
         <v>8</v>
       </c>
       <c r="O115">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -7556,7 +7649,7 @@
         <v>8</v>
       </c>
       <c r="R115">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -7565,7 +7658,7 @@
         <v>39</v>
       </c>
       <c r="U115">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="116">
@@ -7612,7 +7705,7 @@
         <v>5</v>
       </c>
       <c r="O116">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -7621,7 +7714,7 @@
         <v>8</v>
       </c>
       <c r="R116">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -7630,7 +7723,7 @@
         <v>2</v>
       </c>
       <c r="U116">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7677,7 +7770,7 @@
         <v>7</v>
       </c>
       <c r="O117">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7686,7 +7779,7 @@
         <v>8</v>
       </c>
       <c r="R117">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -7695,7 +7788,7 @@
         <v>37</v>
       </c>
       <c r="U117">
-        <v>57.810000000000002</v>
+        <v>0.57809999999999995</v>
       </c>
     </row>
     <row r="118">
@@ -7742,7 +7835,7 @@
         <v>8</v>
       </c>
       <c r="O118">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7751,7 +7844,7 @@
         <v>8</v>
       </c>
       <c r="R118">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -7760,7 +7853,7 @@
         <v>35</v>
       </c>
       <c r="U118">
-        <v>54.689999999999998</v>
+        <v>0.54690000000000005</v>
       </c>
     </row>
     <row r="119">
@@ -7807,7 +7900,7 @@
         <v>3</v>
       </c>
       <c r="O119">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -7816,7 +7909,7 @@
         <v>8</v>
       </c>
       <c r="R119">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -7825,7 +7918,7 @@
         <v>7</v>
       </c>
       <c r="U119">
-        <v>10.94</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="120">
@@ -7872,7 +7965,7 @@
         <v>8</v>
       </c>
       <c r="O120">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -7881,7 +7974,7 @@
         <v>8</v>
       </c>
       <c r="R120">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -7890,7 +7983,7 @@
         <v>39</v>
       </c>
       <c r="U120">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="121">
@@ -7937,7 +8030,7 @@
         <v>8</v>
       </c>
       <c r="O121">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -7946,7 +8039,7 @@
         <v>8</v>
       </c>
       <c r="R121">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S121">
         <v>1</v>
@@ -8002,7 +8095,7 @@
         <v>2</v>
       </c>
       <c r="O122">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -8011,7 +8104,7 @@
         <v>8</v>
       </c>
       <c r="R122">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -8020,7 +8113,7 @@
         <v>21</v>
       </c>
       <c r="U122">
-        <v>32.810000000000002</v>
+        <v>0.3281</v>
       </c>
     </row>
     <row r="123">
@@ -8076,7 +8169,7 @@
         <v>6</v>
       </c>
       <c r="R123">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -8132,7 +8225,7 @@
         <v>2</v>
       </c>
       <c r="O124">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -8141,7 +8234,7 @@
         <v>8</v>
       </c>
       <c r="R124">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -8150,7 +8243,7 @@
         <v>6</v>
       </c>
       <c r="U124">
-        <v>9.3800000000000008</v>
+        <v>0.093799999999999994</v>
       </c>
     </row>
     <row r="125">
@@ -8197,7 +8290,7 @@
         <v>8</v>
       </c>
       <c r="O125">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8206,7 +8299,7 @@
         <v>8</v>
       </c>
       <c r="R125">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S125">
         <v>1</v>
@@ -8262,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="O126">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -8271,7 +8364,7 @@
         <v>8</v>
       </c>
       <c r="R126">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -8280,7 +8373,7 @@
         <v>25</v>
       </c>
       <c r="U126">
-        <v>39.060000000000002</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="127">
@@ -8327,7 +8420,7 @@
         <v>8</v>
       </c>
       <c r="O127">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8336,7 +8429,7 @@
         <v>8</v>
       </c>
       <c r="R127">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S127">
         <v>1</v>
@@ -8356,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -8365,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -8374,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -8383,7 +8476,7 @@
         <v>4</v>
       </c>
       <c r="L128">
-        <v>7.1399999999999997</v>
+        <v>0.071400000000000005</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -8392,7 +8485,7 @@
         <v>8</v>
       </c>
       <c r="O128">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -8401,7 +8494,7 @@
         <v>8</v>
       </c>
       <c r="R128">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -8410,7 +8503,7 @@
         <v>28</v>
       </c>
       <c r="U128">
-        <v>43.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="129">
@@ -8457,7 +8550,7 @@
         <v>8</v>
       </c>
       <c r="O129">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8466,7 +8559,7 @@
         <v>8</v>
       </c>
       <c r="R129">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -8475,7 +8568,7 @@
         <v>39</v>
       </c>
       <c r="U129">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="130">
@@ -8522,7 +8615,7 @@
         <v>8</v>
       </c>
       <c r="O130">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -8531,7 +8624,7 @@
         <v>8</v>
       </c>
       <c r="R130">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -8540,7 +8633,7 @@
         <v>9</v>
       </c>
       <c r="U130">
-        <v>14.06</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="131">
@@ -8587,7 +8680,7 @@
         <v>8</v>
       </c>
       <c r="O131">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -8596,7 +8689,7 @@
         <v>8</v>
       </c>
       <c r="R131">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S131">
         <v>1</v>
@@ -8652,7 +8745,7 @@
         <v>6</v>
       </c>
       <c r="O132">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -8661,7 +8754,7 @@
         <v>8</v>
       </c>
       <c r="R132">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -8670,7 +8763,7 @@
         <v>15</v>
       </c>
       <c r="U132">
-        <v>23.440000000000001</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="133">
@@ -8717,7 +8810,7 @@
         <v>8</v>
       </c>
       <c r="O133">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -8726,7 +8819,7 @@
         <v>8</v>
       </c>
       <c r="R133">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -8735,7 +8828,7 @@
         <v>37</v>
       </c>
       <c r="U133">
-        <v>57.810000000000002</v>
+        <v>0.57809999999999995</v>
       </c>
     </row>
     <row r="134">
@@ -8791,7 +8884,7 @@
         <v>6</v>
       </c>
       <c r="R134">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -8847,7 +8940,7 @@
         <v>2</v>
       </c>
       <c r="O135">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -8856,7 +8949,7 @@
         <v>5</v>
       </c>
       <c r="R135">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -8865,7 +8958,7 @@
         <v>7</v>
       </c>
       <c r="U135">
-        <v>10.94</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="136">
@@ -8912,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="O136">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -8921,7 +9014,7 @@
         <v>8</v>
       </c>
       <c r="R136">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -8930,7 +9023,7 @@
         <v>32</v>
       </c>
       <c r="U136">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137">
@@ -8977,7 +9070,7 @@
         <v>8</v>
       </c>
       <c r="O137">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -8986,7 +9079,7 @@
         <v>8</v>
       </c>
       <c r="R137">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -8995,7 +9088,7 @@
         <v>39</v>
       </c>
       <c r="U137">
-        <v>60.939999999999998</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="138">
@@ -9042,7 +9135,7 @@
         <v>8</v>
       </c>
       <c r="O138">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -9051,7 +9144,7 @@
         <v>8</v>
       </c>
       <c r="R138">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -9060,7 +9153,7 @@
         <v>17</v>
       </c>
       <c r="U138">
-        <v>26.559999999999999</v>
+        <v>0.2656</v>
       </c>
     </row>
     <row r="139">
@@ -9071,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -9080,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -9089,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -9098,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="L139">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -9107,7 +9200,7 @@
         <v>8</v>
       </c>
       <c r="O139">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -9116,7 +9209,7 @@
         <v>8</v>
       </c>
       <c r="R139">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -9125,7 +9218,7 @@
         <v>3</v>
       </c>
       <c r="U139">
-        <v>4.6900000000000004</v>
+        <v>0.046899999999999997</v>
       </c>
     </row>
     <row r="140">
@@ -9172,7 +9265,7 @@
         <v>8</v>
       </c>
       <c r="O140">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -9181,7 +9274,7 @@
         <v>8</v>
       </c>
       <c r="R140">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -9190,7 +9283,7 @@
         <v>31</v>
       </c>
       <c r="U140">
-        <v>48.439999999999998</v>
+        <v>0.4844</v>
       </c>
     </row>
     <row r="141">
@@ -9201,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -9210,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -9219,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1.79</v>
+        <v>0.017899999999999999</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -9228,7 +9321,7 @@
         <v>2</v>
       </c>
       <c r="L141">
-        <v>3.5699999999999998</v>
+        <v>0.035700000000000003</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -9237,7 +9330,7 @@
         <v>8</v>
       </c>
       <c r="O141">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -9246,7 +9339,7 @@
         <v>8</v>
       </c>
       <c r="R141">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -9255,7 +9348,7 @@
         <v>8</v>
       </c>
       <c r="U141">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="142">
@@ -9311,7 +9404,7 @@
         <v>6</v>
       </c>
       <c r="R142">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="S142">
         <v>1</v>
@@ -9376,7 +9469,7 @@
         <v>8</v>
       </c>
       <c r="R143">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S143">
         <v>0</v>
@@ -9385,7 +9478,7 @@
         <v>2</v>
       </c>
       <c r="U143">
-        <v>3.1299999999999999</v>
+        <v>0.031199999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -9432,7 +9525,7 @@
         <v>2</v>
       </c>
       <c r="O144">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -9441,7 +9534,7 @@
         <v>8</v>
       </c>
       <c r="R144">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S144">
         <v>0</v>
@@ -9450,7 +9543,7 @@
         <v>8</v>
       </c>
       <c r="U144">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -9464,48 +9557,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -9545,36 +9638,36 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F4">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G4">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B5">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C5">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D5">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E5">
-        <v>0.84983658559895048</v>
+        <v>0.84983682632446289</v>
       </c>
       <c r="F5">
-        <v>0.88333333333366681</v>
+        <v>0.88333368301391602</v>
       </c>
       <c r="G5">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="6">
@@ -9591,13 +9684,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F6">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G6">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
     <row r="7">
@@ -9614,13 +9707,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F7">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G7">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="8">
@@ -9637,10 +9730,10 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F8">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -9663,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -9683,13 +9776,13 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F10">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G10">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="11">
@@ -9706,10 +9799,10 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F11">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9732,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.98550724637698295</v>
+        <v>0.98550701141357422</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -9752,10 +9845,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F13">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -9775,10 +9868,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.90829510622961607</v>
+        <v>0.9082951545715332</v>
       </c>
       <c r="F14">
-        <v>0.86956521739148229</v>
+        <v>0.86956548690795898</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9798,10 +9891,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F15">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9821,13 +9914,13 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F16">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G16">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="17">
@@ -9844,10 +9937,10 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.90138781886571451</v>
+        <v>0.90138769149780273</v>
       </c>
       <c r="F17">
-        <v>0.88333333333366681</v>
+        <v>0.88333368301391602</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9867,13 +9960,13 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.95742710775721207</v>
+        <v>0.95742702484130859</v>
       </c>
       <c r="F18">
-        <v>0.9710144927530564</v>
+        <v>0.97101497650146484</v>
       </c>
       <c r="G18">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
     <row r="19">
@@ -9890,10 +9983,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F19">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -9913,10 +10006,10 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F20">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -9936,13 +10029,13 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F21">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G21">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="22">
@@ -9959,13 +10052,13 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.97467943448009464</v>
+        <v>0.97467899322509766</v>
       </c>
       <c r="F22">
-        <v>0.95238095238073583</v>
+        <v>0.95238065719604492</v>
       </c>
       <c r="G22">
-        <v>0.90000000000009095</v>
+        <v>0.90000009536743164</v>
       </c>
     </row>
     <row r="23">
@@ -9982,13 +10075,13 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F23">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G23">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="24">
@@ -10005,13 +10098,13 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.94280904158131307</v>
+        <v>0.94280862808227539</v>
       </c>
       <c r="F24">
-        <v>0.93333333333339397</v>
+        <v>0.93333292007446289</v>
       </c>
       <c r="G24">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="25">
@@ -10028,10 +10121,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F25">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -10051,13 +10144,13 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F26">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G26">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
     <row r="27">
@@ -10074,10 +10167,10 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.98601329718349007</v>
+        <v>0.98601245880126953</v>
       </c>
       <c r="F27">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -10097,13 +10190,13 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.91287092917536938</v>
+        <v>0.91287088394165039</v>
       </c>
       <c r="F28">
-        <v>0.9710144927530564</v>
+        <v>0.97101497650146484</v>
       </c>
       <c r="G28">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="29">
@@ -10120,10 +10213,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F29">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -10143,10 +10236,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F30">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -10166,13 +10259,13 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F31">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G31">
-        <v>0.50000000000045475</v>
+        <v>0.5000004768371582</v>
       </c>
     </row>
     <row r="32">
@@ -10189,13 +10282,13 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.96548938460637146</v>
+        <v>0.96548938751220703</v>
       </c>
       <c r="F32">
-        <v>0.93750000000090949</v>
+        <v>0.9375004768371582</v>
       </c>
       <c r="G32">
-        <v>0.75000000000045475</v>
+        <v>0.7500004768371582</v>
       </c>
     </row>
     <row r="33">
@@ -10212,13 +10305,13 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.98994949366078799</v>
+        <v>0.98994922637939453</v>
       </c>
       <c r="F33">
-        <v>0.9285714285715585</v>
+        <v>0.92857122421264648</v>
       </c>
       <c r="G33">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="34">
@@ -10235,13 +10328,13 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F34">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G34">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="35">
@@ -10261,10 +10354,10 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0.98333333333266637</v>
+        <v>0.98333263397216797</v>
       </c>
       <c r="G35">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="36">
@@ -10281,13 +10374,13 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F36">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G36">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="37">
@@ -10304,13 +10397,13 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F37">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G37">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="38">
@@ -10327,10 +10420,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.93541434669259615</v>
+        <v>0.93541479110717773</v>
       </c>
       <c r="F38">
-        <v>0.8985507246375164</v>
+        <v>0.89855051040649414</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -10350,36 +10443,36 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F39">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G39">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="B40">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="C40">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="D40">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="E40">
-        <v>0.8291561975888726</v>
+        <v>0.82915639877319336</v>
       </c>
       <c r="F40">
-        <v>0.81666666666706078</v>
+        <v>0.81666707992553711</v>
       </c>
       <c r="G40">
-        <v>0.75000000000045475</v>
+        <v>0.7500004768371582</v>
       </c>
     </row>
     <row r="41">
@@ -10396,10 +10489,10 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F41">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -10407,48 +10500,48 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
       <c r="B42">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
       <c r="C42">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
       <c r="D42">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
       <c r="E42">
-        <v>0.70710678118621217</v>
+        <v>0.7071070671081543</v>
       </c>
       <c r="F42">
-        <v>0.79999999999972715</v>
+        <v>0.79999971389770508</v>
       </c>
       <c r="G42">
-        <v>0.79999999999972715</v>
+        <v>0.79999971389770508</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B43">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C43">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D43">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E43">
-        <v>0.95742710775721207</v>
+        <v>0.95742702484130859</v>
       </c>
       <c r="F43">
-        <v>0.9499999999998181</v>
+        <v>0.95000028610229492</v>
       </c>
       <c r="G43">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="44">
@@ -10465,13 +10558,13 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F44">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G44">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="45">
@@ -10488,13 +10581,13 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F45">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G45">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="46">
@@ -10511,10 +10604,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F46">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -10537,10 +10630,10 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0.9710144927530564</v>
+        <v>0.97101497650146484</v>
       </c>
       <c r="G47">
-        <v>0.70000000000027285</v>
+        <v>0.70000028610229492</v>
       </c>
     </row>
     <row r="48">
@@ -10557,36 +10650,36 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.94280904158131307</v>
+        <v>0.94280862808227539</v>
       </c>
       <c r="F48">
-        <v>0.9420289855070223</v>
+        <v>0.94202852249145508</v>
       </c>
       <c r="G48">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B49">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C49">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D49">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E49">
-        <v>0.86602540378453341</v>
+        <v>0.86602544784545898</v>
       </c>
       <c r="F49">
-        <v>0.88888888888914153</v>
+        <v>0.88888883590698242</v>
       </c>
       <c r="G49">
-        <v>0.50000000000045475</v>
+        <v>0.5000004768371582</v>
       </c>
     </row>
     <row r="50">
@@ -10603,13 +10696,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.93541434669259615</v>
+        <v>0.93541479110717773</v>
       </c>
       <c r="F50">
-        <v>0.9420289855070223</v>
+        <v>0.94202852249145508</v>
       </c>
       <c r="G50">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="51">
@@ -10626,13 +10719,13 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0.96465307523340016</v>
+        <v>0.96465396881103516</v>
       </c>
       <c r="F51">
-        <v>0.96231884057942807</v>
+        <v>0.96231937408447266</v>
       </c>
       <c r="G51">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="52">
@@ -10649,10 +10742,10 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F52">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -10672,13 +10765,13 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F53">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G53">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="54">
@@ -10695,13 +10788,13 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F54">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G54">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
     <row r="55">
@@ -10718,13 +10811,13 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.99512701590265351</v>
+        <v>0.99512767791748047</v>
       </c>
       <c r="F55">
-        <v>0.94927536231898557</v>
+        <v>0.94927549362182617</v>
       </c>
       <c r="G55">
-        <v>0.66666666666651508</v>
+        <v>0.66666650772094727</v>
       </c>
     </row>
     <row r="56">
@@ -10741,10 +10834,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F56">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -10764,13 +10857,13 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F57">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G57">
-        <v>0.9499999999998181</v>
+        <v>0.95000028610229492</v>
       </c>
     </row>
     <row r="58">
@@ -10787,13 +10880,13 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0.99652172859259736</v>
+        <v>0.99652194976806641</v>
       </c>
       <c r="F58">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G58">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="59">
@@ -10810,13 +10903,13 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F59">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G59">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="60">
@@ -10833,13 +10926,13 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F60">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G60">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="61">
@@ -10859,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -10879,36 +10972,36 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F62">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G62">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="B63">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="C63">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="D63">
-        <v>0.91666666666696983</v>
+        <v>0.91666650772094727</v>
       </c>
       <c r="E63">
-        <v>0.74535599250020823</v>
+        <v>0.74535608291625977</v>
       </c>
       <c r="F63">
-        <v>0.82500000000027285</v>
+        <v>0.82500028610229492</v>
       </c>
       <c r="G63">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="64">
@@ -10928,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -10948,13 +11041,13 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F65">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G65">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="66">
@@ -10971,13 +11064,13 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.97894501037171722</v>
+        <v>0.97894573211669922</v>
       </c>
       <c r="F66">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G66">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="67">
@@ -10994,13 +11087,13 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F67">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G67">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="68">
@@ -11017,13 +11110,13 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F68">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G68">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
     <row r="69">
@@ -11040,10 +11133,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F69">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -11063,13 +11156,13 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F70">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G70">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="71">
@@ -11086,13 +11179,13 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F71">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G71">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="72">
@@ -11109,13 +11202,13 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F72">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G72">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="73">
@@ -11135,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -11143,25 +11236,25 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B74">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C74">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D74">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E74">
-        <v>0.98742088290691754</v>
+        <v>0.98742008209228516</v>
       </c>
       <c r="F74">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G74">
-        <v>0.9749999999994543</v>
+        <v>0.97499942779541016</v>
       </c>
     </row>
     <row r="75">
@@ -11178,13 +11271,13 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0.94280904158131307</v>
+        <v>0.94280862808227539</v>
       </c>
       <c r="F75">
-        <v>0.91304347826098819</v>
+        <v>0.91304349899291992</v>
       </c>
       <c r="G75">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="76">
@@ -11201,13 +11294,13 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0.98601329718349007</v>
+        <v>0.98601245880126953</v>
       </c>
       <c r="F76">
-        <v>0.9285714285715585</v>
+        <v>0.92857122421264648</v>
       </c>
       <c r="G76">
-        <v>0.87500000000045475</v>
+        <v>0.8750004768371582</v>
       </c>
     </row>
     <row r="77">
@@ -11224,13 +11317,13 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0.97912272827397828</v>
+        <v>0.97912311553955078</v>
       </c>
       <c r="F77">
-        <v>0.95238095238073583</v>
+        <v>0.95238065719604492</v>
       </c>
       <c r="G77">
-        <v>0.79999999999972715</v>
+        <v>0.79999971389770508</v>
       </c>
     </row>
     <row r="78">
@@ -11247,13 +11340,13 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0.99493160010479187</v>
+        <v>0.99493122100830078</v>
       </c>
       <c r="F78">
-        <v>0.95072463768065063</v>
+        <v>0.95072507858276367</v>
       </c>
       <c r="G78">
-        <v>0.39999999999986358</v>
+        <v>0.39999985694885248</v>
       </c>
     </row>
     <row r="79">
@@ -11270,10 +11363,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F79">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -11293,13 +11386,13 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0.83666002653399119</v>
+        <v>0.83665990829467773</v>
       </c>
       <c r="F80">
-        <v>0.91999999999916326</v>
+        <v>0.91999959945678711</v>
       </c>
       <c r="G80">
-        <v>0.50000000000045475</v>
+        <v>0.5000004768371582</v>
       </c>
     </row>
     <row r="81">
@@ -11316,13 +11409,13 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0.99652172859259736</v>
+        <v>0.99652194976806641</v>
       </c>
       <c r="F81">
-        <v>0.95238095238073583</v>
+        <v>0.95238065719604492</v>
       </c>
       <c r="G81">
-        <v>0.87500000000045475</v>
+        <v>0.8750004768371582</v>
       </c>
     </row>
     <row r="82">
@@ -11339,10 +11432,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F82">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -11362,13 +11455,13 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F83">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G83">
-        <v>0.75000000000045475</v>
+        <v>0.7500004768371582</v>
       </c>
     </row>
     <row r="84">
@@ -11385,10 +11478,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F84">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -11408,13 +11501,13 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F85">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G85">
-        <v>0.75000000000045475</v>
+        <v>0.7500004768371582</v>
       </c>
     </row>
     <row r="86">
@@ -11431,10 +11524,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F86">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -11454,10 +11547,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F87">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -11477,10 +11570,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F88">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -11488,25 +11581,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B89">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C89">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D89">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E89">
-        <v>0.95742710775721207</v>
+        <v>0.95742702484130859</v>
       </c>
       <c r="F89">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G89">
-        <v>0.90000000000009095</v>
+        <v>0.90000009536743164</v>
       </c>
     </row>
     <row r="90">
@@ -11523,10 +11616,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F90">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -11546,36 +11639,36 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F91">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G91">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.9749999999994543</v>
+        <v>0.97499942779541016</v>
       </c>
       <c r="B92">
-        <v>0.9749999999994543</v>
+        <v>0.97499942779541016</v>
       </c>
       <c r="C92">
-        <v>0.9749999999994543</v>
+        <v>0.97499942779541016</v>
       </c>
       <c r="D92">
-        <v>0.9749999999994543</v>
+        <v>0.97499942779541016</v>
       </c>
       <c r="E92">
-        <v>0.95652002360384358</v>
+        <v>0.95651912689208984</v>
       </c>
       <c r="F92">
-        <v>0.89523809523825548</v>
+        <v>0.89523839950561523</v>
       </c>
       <c r="G92">
-        <v>0.93333333333339397</v>
+        <v>0.93333292007446289</v>
       </c>
     </row>
     <row r="93">
@@ -11592,13 +11685,13 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F93">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G93">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="94">
@@ -11615,13 +11708,13 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0.95378606085523643</v>
+        <v>0.95378589630126953</v>
       </c>
       <c r="F94">
-        <v>0.93809523809522943</v>
+        <v>0.9380955696105957</v>
       </c>
       <c r="G94">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="95">
@@ -11638,10 +11731,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F95">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -11661,13 +11754,13 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0.91287092917536938</v>
+        <v>0.91287088394165039</v>
       </c>
       <c r="F96">
-        <v>0.88095238095274908</v>
+        <v>0.88095235824584961</v>
       </c>
       <c r="G96">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="97">
@@ -11684,10 +11777,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F97">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -11707,10 +11800,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F98">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -11730,13 +11823,13 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0.95742710775721207</v>
+        <v>0.95742702484130859</v>
       </c>
       <c r="F99">
-        <v>0.98333333333266637</v>
+        <v>0.98333263397216797</v>
       </c>
       <c r="G99">
-        <v>0.90000000000009095</v>
+        <v>0.90000009536743164</v>
       </c>
     </row>
     <row r="100">
@@ -11753,13 +11846,13 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F100">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G100">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="101">
@@ -11776,13 +11869,13 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0.96609178307971888</v>
+        <v>0.96609210968017578</v>
       </c>
       <c r="F101">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G101">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="102">
@@ -11799,13 +11892,13 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0.94280904158131307</v>
+        <v>0.94280862808227539</v>
       </c>
       <c r="F102">
-        <v>0.92753623188491474</v>
+        <v>0.9275364875793457</v>
       </c>
       <c r="G102">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="103">
@@ -11822,13 +11915,13 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F103">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G103">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="104">
@@ -11845,10 +11938,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F104">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -11868,36 +11961,36 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F105">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G105">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B106">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C106">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D106">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E106">
-        <v>0.93094933625161502</v>
+        <v>0.93094968795776367</v>
       </c>
       <c r="F106">
-        <v>0.89147286821707894</v>
+        <v>0.89147329330444336</v>
       </c>
       <c r="G106">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="107">
@@ -11914,10 +12007,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F107">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -11937,10 +12030,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F108">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -11963,10 +12056,10 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G109">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="110">
@@ -11986,7 +12079,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>0.96376811594291212</v>
+        <v>0.96376895904541016</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -12006,13 +12099,13 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F111">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G111">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="112">
@@ -12029,13 +12122,13 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0.96609178307971888</v>
+        <v>0.96609210968017578</v>
       </c>
       <c r="F112">
-        <v>0.95312500000090949</v>
+        <v>0.9531254768371582</v>
       </c>
       <c r="G112">
-        <v>0.59999999999990905</v>
+        <v>0.59999990463256836</v>
       </c>
     </row>
     <row r="113">
@@ -12052,13 +12145,13 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F113">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G113">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="114">
@@ -12075,10 +12168,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F114">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -12098,13 +12191,13 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F115">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G115">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="116">
@@ -12121,13 +12214,13 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F116">
-        <v>0.9710144927530564</v>
+        <v>0.97101497650146484</v>
       </c>
       <c r="G116">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="117">
@@ -12144,13 +12237,13 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0.99652172859259736</v>
+        <v>0.99652194976806641</v>
       </c>
       <c r="F117">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G117">
-        <v>0.59999999999990905</v>
+        <v>0.59999990463256836</v>
       </c>
     </row>
     <row r="118">
@@ -12167,13 +12260,13 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0.90138781886571451</v>
+        <v>0.90138769149780273</v>
       </c>
       <c r="F118">
-        <v>0.91999999999916326</v>
+        <v>0.91999959945678711</v>
       </c>
       <c r="G118">
-        <v>0.39999999999986358</v>
+        <v>0.39999985694885248</v>
       </c>
     </row>
     <row r="119">
@@ -12190,13 +12283,13 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F119">
-        <v>0.96376811594291212</v>
+        <v>0.96376895904541016</v>
       </c>
       <c r="G119">
-        <v>0.90000000000009095</v>
+        <v>0.90000009536743164</v>
       </c>
     </row>
     <row r="120">
@@ -12213,13 +12306,13 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F120">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G120">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="121">
@@ -12236,10 +12329,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0.95742710775721207</v>
+        <v>0.95742702484130859</v>
       </c>
       <c r="F121">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -12259,13 +12352,13 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F122">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G122">
-        <v>0.50000000000045475</v>
+        <v>0.5000004768371582</v>
       </c>
     </row>
     <row r="123">
@@ -12285,7 +12378,7 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>0.96376811594291212</v>
+        <v>0.96376895904541016</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -12305,13 +12398,13 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F124">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G124">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="125">
@@ -12328,10 +12421,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F125">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -12351,13 +12444,13 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F126">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G126">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
     <row r="127">
@@ -12374,10 +12467,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F127">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12385,25 +12478,25 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B128">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C128">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D128">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E128">
-        <v>0.93541434669259615</v>
+        <v>0.93541479110717773</v>
       </c>
       <c r="F128">
-        <v>0.90476190476192642</v>
+        <v>0.90476179122924805</v>
       </c>
       <c r="G128">
-        <v>0.75000000000045475</v>
+        <v>0.7500004768371582</v>
       </c>
     </row>
     <row r="129">
@@ -12420,13 +12513,13 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F129">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G129">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="130">
@@ -12443,13 +12536,13 @@
         <v>1</v>
       </c>
       <c r="E130">
-        <v>0.96824583655234164</v>
+        <v>0.96824550628662109</v>
       </c>
       <c r="F130">
-        <v>0.90952380952421663</v>
+        <v>0.90952348709106445</v>
       </c>
       <c r="G130">
-        <v>0.87500000000045475</v>
+        <v>0.8750004768371582</v>
       </c>
     </row>
     <row r="131">
@@ -12466,10 +12559,10 @@
         <v>1</v>
       </c>
       <c r="E131">
-        <v>0.91287092917536938</v>
+        <v>0.91287088394165039</v>
       </c>
       <c r="F131">
-        <v>0.93478260869505903</v>
+        <v>0.93478250503540039</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -12489,13 +12582,13 @@
         <v>1</v>
       </c>
       <c r="E132">
-        <v>0.98742088290691754</v>
+        <v>0.98742008209228516</v>
       </c>
       <c r="F132">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G132">
-        <v>0.87500000000045475</v>
+        <v>0.8750004768371582</v>
       </c>
     </row>
     <row r="133">
@@ -12512,13 +12605,13 @@
         <v>1</v>
       </c>
       <c r="E133">
-        <v>0.88317608663282954</v>
+        <v>0.88317632675170898</v>
       </c>
       <c r="F133">
-        <v>0.9429824561402711</v>
+        <v>0.94298219680786133</v>
       </c>
       <c r="G133">
-        <v>0.59999999999990905</v>
+        <v>0.59999990463256836</v>
       </c>
     </row>
     <row r="134">
@@ -12538,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12558,13 +12651,13 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F135">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G135">
-        <v>0.90000000000009095</v>
+        <v>0.90000009536743164</v>
       </c>
     </row>
     <row r="136">
@@ -12581,13 +12674,13 @@
         <v>1</v>
       </c>
       <c r="E136">
-        <v>0.95742710775721207</v>
+        <v>0.95742702484130859</v>
       </c>
       <c r="F136">
-        <v>0.94927536231898557</v>
+        <v>0.94927549362182617</v>
       </c>
       <c r="G136">
-        <v>0.66666666666651508</v>
+        <v>0.66666650772094727</v>
       </c>
     </row>
     <row r="137">
@@ -12604,13 +12697,13 @@
         <v>1</v>
       </c>
       <c r="E137">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F137">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G137">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="138">
@@ -12627,36 +12720,36 @@
         <v>1</v>
       </c>
       <c r="E138">
-        <v>0.98601329718349007</v>
+        <v>0.98601245880126953</v>
       </c>
       <c r="F138">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G138">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B139">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C139">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D139">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E139">
-        <v>0.85391256383036307</v>
+        <v>0.8539128303527832</v>
       </c>
       <c r="F139">
-        <v>0.84375000000045475</v>
+        <v>0.8437504768371582</v>
       </c>
       <c r="G139">
-        <v>0.87500000000045475</v>
+        <v>0.8750004768371582</v>
       </c>
     </row>
     <row r="140">
@@ -12673,36 +12766,36 @@
         <v>1</v>
       </c>
       <c r="E140">
-        <v>0.94353879606296687</v>
+        <v>0.94353914260864258</v>
       </c>
       <c r="F140">
-        <v>0.91904761904788757</v>
+        <v>0.91904783248901367</v>
       </c>
       <c r="G140">
-        <v>0.39999999999986358</v>
+        <v>0.39999985694885248</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="B141">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="C141">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="D141">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="E141">
-        <v>0.81649658092783284</v>
+        <v>0.81649637222290039</v>
       </c>
       <c r="F141">
-        <v>0.79999999999972715</v>
+        <v>0.79999971389770508</v>
       </c>
       <c r="G141">
-        <v>0.33333333333325749</v>
+        <v>0.33333325386047358</v>
       </c>
     </row>
     <row r="142">
@@ -12722,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>0.98550724637698295</v>
+        <v>0.98550701141357422</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12745,10 +12838,10 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G143">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
     </row>
     <row r="144">
@@ -12765,13 +12858,13 @@
         <v>1</v>
       </c>
       <c r="E144">
-        <v>0.99999999999909051</v>
+        <v>0.99999904632568359</v>
       </c>
       <c r="F144">
-        <v>0.95652173913094884</v>
+        <v>0.95652103424072266</v>
       </c>
       <c r="G144">
-        <v>0.83333333333348492</v>
+        <v>0.83333349227905273</v>
       </c>
     </row>
   </sheetData>
